--- a/gp database 2015-10-13.xlsx
+++ b/gp database 2015-10-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="41" activeTab="50"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="757">
   <si>
     <t>#</t>
   </si>
@@ -1372,12 +1372,6 @@
     <t>删除文件所属的工作组</t>
   </si>
   <si>
-    <t>public_cab_id</t>
-  </si>
-  <si>
-    <t>private_cab_id</t>
-  </si>
-  <si>
     <t>公开文件柜ID</t>
   </si>
   <si>
@@ -2354,6 +2348,9 @@
   </si>
   <si>
     <t>跟踪源ID，workgroup_id, user_id, module_id</t>
+  </si>
+  <si>
+    <t>用户密级</t>
   </si>
 </sst>
 </file>
@@ -17107,8 +17104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17139,10 +17136,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -17175,7 +17172,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>302</v>
@@ -17191,7 +17188,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -17215,7 +17212,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -17245,7 +17242,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -17257,7 +17254,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="F17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -17278,7 +17275,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="F19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -17290,7 +17287,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="F20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -17320,7 +17317,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="F23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -17341,7 +17338,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>312</v>
@@ -17395,7 +17392,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>316</v>
@@ -17458,67 +17455,67 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C41" s="24"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C46" s="24"/>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C47" s="24"/>
       <c r="D47" s="1"/>
@@ -17774,7 +17771,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -18065,7 +18062,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>241</v>
@@ -18088,7 +18085,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -18102,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>172</v>
@@ -18112,7 +18109,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -18120,7 +18117,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -18134,7 +18131,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -18142,7 +18139,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -18154,7 +18151,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -18162,7 +18159,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -18174,7 +18171,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -18182,7 +18179,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -18194,7 +18191,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -18272,7 +18269,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -18292,7 +18289,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -18300,7 +18297,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -18312,7 +18309,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -18320,7 +18317,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -18332,7 +18329,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -18425,7 +18422,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -18438,10 +18435,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I34"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18503,7 +18500,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -18535,7 +18532,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>367</v>
@@ -18551,7 +18548,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -18601,7 +18598,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -18721,7 +18718,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -18785,7 +18782,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>367</v>
@@ -18803,7 +18800,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -18815,7 +18812,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -18823,7 +18820,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -18835,7 +18832,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -18843,7 +18840,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>430</v>
+        <v>725</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>172</v>
@@ -18853,13 +18850,13 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="6" t="s">
-        <v>431</v>
+        <v>726</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>172</v>
@@ -18869,7 +18866,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -18885,74 +18882,82 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>19</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>110</v>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>32</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="6" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>16</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
@@ -18964,14 +18969,24 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>688</v>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -18982,6 +18997,7 @@
     <hyperlink ref="I2" location="list!A1" display="list!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -19051,7 +19067,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -19075,7 +19091,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -19291,7 +19307,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -19329,7 +19345,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -19623,7 +19639,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -19850,7 +19866,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -19924,7 +19940,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -19936,7 +19952,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -20177,7 +20193,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -20461,7 +20477,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -20495,7 +20511,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -20525,7 +20541,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -20583,7 +20599,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -20619,13 +20635,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>172</v>
@@ -20635,7 +20651,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -20653,7 +20669,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -20661,7 +20677,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -20671,7 +20687,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -20806,7 +20822,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -20814,10 +20830,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -20825,41 +20841,41 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F31" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C36" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -20920,7 +20936,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -21252,10 +21268,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -21269,7 +21285,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>172</v>
@@ -21287,7 +21303,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -21299,7 +21315,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -21327,7 +21343,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -21339,7 +21355,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -21367,7 +21383,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -21379,7 +21395,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -21387,7 +21403,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -21399,7 +21415,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -21407,7 +21423,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -21419,7 +21435,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -21427,7 +21443,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -21437,7 +21453,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -21445,7 +21461,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>172</v>
@@ -21455,7 +21471,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -21483,7 +21499,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>172</v>
@@ -21493,7 +21509,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -21566,27 +21582,27 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -21645,7 +21661,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -21677,7 +21693,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -21689,7 +21705,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -21735,7 +21751,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -21745,7 +21761,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -21753,7 +21769,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>172</v>
@@ -21763,7 +21779,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -21821,7 +21837,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -21946,17 +21962,17 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -21997,7 +22013,7 @@
         <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -22017,7 +22033,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -22097,7 +22113,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -22105,7 +22121,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>172</v>
@@ -22123,7 +22139,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>9</v>
@@ -22133,7 +22149,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -22141,7 +22157,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>9</v>
@@ -22151,7 +22167,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -22264,17 +22280,17 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -22332,7 +22348,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -22346,7 +22362,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -22356,7 +22372,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -22400,7 +22416,7 @@
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
@@ -22412,7 +22428,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -22653,17 +22669,17 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -22696,7 +22712,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -22722,7 +22738,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -22736,7 +22752,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -22746,7 +22762,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -22810,7 +22826,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -22820,7 +22836,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -22908,7 +22924,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>172</v>
@@ -22936,7 +22952,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -22954,7 +22970,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -22972,7 +22988,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -23020,7 +23036,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>172</v>
@@ -23030,7 +23046,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -23117,22 +23133,22 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -23192,7 +23208,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -23206,7 +23222,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -23216,7 +23232,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -23298,7 +23314,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -23308,13 +23324,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -23322,7 +23338,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -23390,7 +23406,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -23520,7 +23536,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>172</v>
@@ -23530,7 +23546,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -23653,17 +23669,17 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -23724,7 +23740,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -23738,7 +23754,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -23893,7 +23909,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -23927,7 +23943,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -23959,7 +23975,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -24143,7 +24159,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -24175,7 +24191,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -24185,7 +24201,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -24425,7 +24441,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>172</v>
@@ -24435,7 +24451,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -24615,7 +24631,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -24647,7 +24663,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -24657,7 +24673,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -24699,7 +24715,7 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -24709,7 +24725,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -24727,7 +24743,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -24813,7 +24829,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -24823,7 +24839,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -25215,7 +25231,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -25249,7 +25265,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -25259,7 +25275,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -25303,7 +25319,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -25313,7 +25329,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -25565,7 +25581,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>172</v>
@@ -25575,7 +25591,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -25700,12 +25716,12 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -25765,7 +25781,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -25799,7 +25815,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -25809,7 +25825,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -25901,7 +25917,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -25911,7 +25927,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -26111,7 +26127,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>172</v>
@@ -26121,7 +26137,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -26244,12 +26260,12 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -26309,7 +26325,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -26323,7 +26339,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -26333,7 +26349,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -26377,7 +26393,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -26387,7 +26403,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -26445,7 +26461,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -26586,7 +26602,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -26645,7 +26661,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -26679,7 +26695,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -26689,7 +26705,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -26713,7 +26729,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -26723,7 +26739,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -26829,7 +26845,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>172</v>
@@ -26839,7 +26855,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -27093,7 +27109,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -27177,7 +27193,7 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -27187,7 +27203,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -27368,7 +27384,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -27402,7 +27418,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -27411,7 +27427,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -27447,7 +27463,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -27514,7 +27530,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>172</v>
@@ -27661,7 +27677,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -27735,7 +27751,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -27825,7 +27841,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -27834,7 +27850,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -28130,12 +28146,12 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -28613,7 +28629,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -28673,7 +28689,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -28826,7 +28842,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>9</v>
@@ -28848,7 +28864,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>9</v>
@@ -28924,7 +28940,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -28935,7 +28951,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -29043,7 +29059,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -29141,12 +29157,12 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29315,17 +29331,17 @@
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -29474,7 +29490,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -29485,7 +29501,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -29494,7 +29510,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -29629,17 +29645,17 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -29699,7 +29715,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -29731,7 +29747,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -29890,12 +29906,12 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -29969,7 +29985,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -29978,7 +29994,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -29987,7 +30003,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -29998,14 +30014,14 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30017,7 +30033,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30031,7 +30047,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -30042,14 +30058,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>366</v>
@@ -30524,7 +30540,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -30550,7 +30566,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -30558,7 +30574,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>9</v>
@@ -30572,7 +30588,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -30626,7 +30642,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -30644,7 +30660,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -30664,7 +30680,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -30692,7 +30708,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -30704,7 +30720,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -30712,7 +30728,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -30724,7 +30740,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -30732,7 +30748,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -30744,13 +30760,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -30764,7 +30780,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>144</v>
@@ -30774,7 +30790,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -30837,17 +30853,17 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -30906,7 +30922,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -30957,7 +30973,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -30969,7 +30985,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -30989,7 +31005,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -30998,7 +31014,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -31017,7 +31033,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -31029,7 +31045,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -31038,7 +31054,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -31126,12 +31142,12 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -31164,7 +31180,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -31190,7 +31206,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -31204,7 +31220,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -31244,7 +31260,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -31260,7 +31276,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -31272,7 +31288,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -31280,7 +31296,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>144</v>
@@ -31296,7 +31312,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>144</v>
@@ -31455,7 +31471,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -31481,7 +31497,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -31495,7 +31511,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -31509,7 +31525,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -31518,7 +31534,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -31537,7 +31553,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -31547,7 +31563,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -31556,7 +31572,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -31566,7 +31582,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -31575,7 +31591,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -31585,7 +31601,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -31594,7 +31610,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -31606,7 +31622,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -31615,7 +31631,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -31625,7 +31641,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -31634,7 +31650,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -31644,7 +31660,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -31653,7 +31669,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>366</v>
@@ -31665,7 +31681,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -31684,7 +31700,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -31693,7 +31709,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -31703,7 +31719,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -31712,7 +31728,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>172</v>
@@ -31722,7 +31738,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -31731,7 +31747,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -31874,10 +31890,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>241</v>
@@ -31900,7 +31916,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -31914,7 +31930,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -31928,7 +31944,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -31937,7 +31953,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -31957,7 +31973,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -31967,7 +31983,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -31977,7 +31993,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -31987,7 +32003,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -31997,7 +32013,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -32007,7 +32023,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -32017,7 +32033,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -32029,7 +32045,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -32039,7 +32055,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -32049,7 +32065,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -32059,7 +32075,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -32069,7 +32085,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -32079,7 +32095,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>366</v>
@@ -32091,7 +32107,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -32111,7 +32127,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -32121,7 +32137,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -32131,7 +32147,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -32151,7 +32167,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -32161,7 +32177,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -32171,7 +32187,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -32181,7 +32197,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -32191,7 +32207,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -32201,7 +32217,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>172</v>
@@ -32211,7 +32227,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -32221,7 +32237,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -32231,7 +32247,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -32241,7 +32257,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -32251,7 +32267,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -32261,7 +32277,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -32271,7 +32287,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -32391,7 +32407,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -32417,7 +32433,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -32431,7 +32447,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -32445,7 +32461,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -32454,7 +32470,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>172</v>
@@ -32492,7 +32508,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -32500,7 +32516,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -32509,7 +32525,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -32519,7 +32535,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -32528,7 +32544,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -32540,7 +32556,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -32549,7 +32565,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -32559,7 +32575,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -32578,7 +32594,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -32590,7 +32606,7 @@
         <v>323</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E13" s="1">
         <v>16</v>
@@ -32618,7 +32634,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -32627,7 +32643,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -32637,7 +32653,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K15" s="4"/>
     </row>
@@ -32646,7 +32662,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>366</v>
@@ -32656,7 +32672,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K16" s="4"/>
     </row>
@@ -32665,7 +32681,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>366</v>
@@ -32675,7 +32691,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -32684,7 +32700,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -32694,7 +32710,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K18" s="4"/>
     </row>
@@ -32703,7 +32719,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -32713,7 +32729,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -32858,7 +32874,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -32912,7 +32928,7 @@
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -32920,7 +32936,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -32929,7 +32945,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>9</v>
@@ -32941,7 +32957,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -32950,7 +32966,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>9</v>
@@ -32960,7 +32976,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -33002,14 +33018,14 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>172</v>
@@ -33019,7 +33035,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -33040,7 +33056,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K13" s="8"/>
     </row>
@@ -33074,7 +33090,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K15" s="8"/>
     </row>
@@ -33083,7 +33099,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>172</v>
@@ -33093,7 +33109,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K16" s="8"/>
     </row>
@@ -33102,7 +33118,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>172</v>
@@ -33112,14 +33128,14 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>172</v>
@@ -33129,7 +33145,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -33138,7 +33154,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>144</v>
@@ -33148,14 +33164,14 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -33163,7 +33179,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -33172,7 +33188,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>144</v>
@@ -33182,7 +33198,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K21" s="8"/>
     </row>
@@ -33191,7 +33207,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>144</v>
@@ -33201,7 +33217,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K22" s="8"/>
     </row>
@@ -33210,7 +33226,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>144</v>
@@ -33220,7 +33236,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="K23" s="8"/>
     </row>
@@ -33229,7 +33245,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>144</v>
@@ -33239,7 +33255,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K24" s="8"/>
     </row>
@@ -33346,12 +33362,12 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -33411,7 +33427,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -33437,7 +33453,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -33445,7 +33461,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -33455,7 +33471,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K6" s="8"/>
     </row>
@@ -33474,7 +33490,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -33483,7 +33499,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>172</v>
@@ -33493,7 +33509,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -33502,7 +33518,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -33514,7 +33530,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -33523,7 +33539,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -33533,7 +33549,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -33557,7 +33573,7 @@
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -33673,17 +33689,17 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -33698,8 +33714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33717,7 +33733,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>241</v>
@@ -33740,7 +33756,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -33754,7 +33770,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>172</v>
@@ -33764,7 +33780,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -33773,7 +33789,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>366</v>
@@ -33783,7 +33799,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -33792,7 +33808,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -33802,7 +33818,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -33812,7 +33828,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>172</v>
@@ -33822,7 +33838,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -33832,7 +33848,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -33850,7 +33866,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -33868,7 +33884,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -33886,7 +33902,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -33904,7 +33920,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -33922,7 +33938,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -33940,7 +33956,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -33958,7 +33974,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -33976,7 +33992,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -33994,7 +34010,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -34012,7 +34028,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -34030,7 +34046,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -34048,7 +34064,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -34066,7 +34082,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -34084,7 +34100,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -34102,7 +34118,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -34120,7 +34136,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -34138,7 +34154,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -34156,7 +34172,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -34174,7 +34190,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -34376,7 +34392,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>241</v>
@@ -34399,7 +34415,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -34413,7 +34429,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>172</v>
@@ -34448,7 +34464,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>172</v>
@@ -34458,7 +34474,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -34467,7 +34483,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>9</v>
@@ -34479,7 +34495,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -34488,7 +34504,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>172</v>
@@ -34498,7 +34514,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -34507,7 +34523,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>27</v>
@@ -34517,7 +34533,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -34672,12 +34688,12 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -34737,7 +34753,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>13</v>
@@ -34821,7 +34837,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -34830,7 +34846,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -34842,7 +34858,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -34851,7 +34867,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>172</v>
@@ -34861,7 +34877,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -34967,17 +34983,17 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -35010,7 +35026,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
@@ -35036,7 +35052,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
@@ -35050,7 +35066,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -35092,7 +35108,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -35102,7 +35118,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K7" s="4"/>
     </row>
@@ -35111,7 +35127,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -35123,7 +35139,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K8" s="4"/>
     </row>
@@ -35132,7 +35148,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -35142,7 +35158,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -35161,7 +35177,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K10" s="4"/>
     </row>
@@ -35173,7 +35189,7 @@
         <v>323</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E11" s="1">
         <v>16</v>
@@ -35201,7 +35217,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K12" s="4"/>
     </row>
@@ -35210,7 +35226,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -35220,7 +35236,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K13" s="4"/>
     </row>
@@ -35229,7 +35245,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>366</v>
@@ -35239,7 +35255,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -35377,7 +35393,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>13</v>
